--- a/kjpt-platform/src/main/resources/static/template/科研平台模板.xlsx
+++ b/kjpt-platform/src/main/resources/static/template/科研平台模板.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB760C7B-D1CE-4752-A90A-1DC785392484}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE53FD0-5498-4970-8202-4E05B117E270}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1215" windowWidth="20580" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="615" windowWidth="20580" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
